--- a/KatalonData/ABPTestData/PaymentsCC.xlsx
+++ b/KatalonData/ABPTestData/PaymentsCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AEF33255-183D-45C6-B3AC-10C232FD1CD9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{843CA9F4-5A81-4726-8D9F-B501FAA68738}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="4" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="6" firstSheet="6" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="VerifySuccessfulPaymentCCNoCF" r:id="rId1" sheetId="1"/>
@@ -19,9 +19,10 @@
     <sheet name="VerifySuccessfulPaymentCCSCF" r:id="rId4" sheetId="2"/>
     <sheet name="VerifySuccessfulPaymentCCDCF" r:id="rId5" sheetId="3"/>
     <sheet name="VerifySuccessfulPaymentSPMCCDCF" r:id="rId6" sheetId="9"/>
-    <sheet name="VerifyStaticTextOnPPCCDCF" r:id="rId7" sheetId="6"/>
-    <sheet name="UIVerifySelectPaymentMethodCC" r:id="rId8" sheetId="7"/>
-    <sheet name="CreateVerifyDeleteCCPM" r:id="rId9" sheetId="8"/>
+    <sheet name="UiVerificationSPPaymentMethodCC" r:id="rId7" sheetId="10"/>
+    <sheet name="VerifyStaticTextOnPPCCDCF" r:id="rId8" sheetId="6"/>
+    <sheet name="UIVerifySelectPaymentMethodCC" r:id="rId9" sheetId="7"/>
+    <sheet name="CreateVerifyDeleteCCPM" r:id="rId10" sheetId="8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
   <si>
     <t>Result</t>
   </si>
@@ -84,9 +85,6 @@
   </si>
   <si>
     <t>Thu May 15 17:04:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon May 19 19:55:15 IST 2025</t>
   </si>
   <si>
     <t>Mon May 19 19:55:54 IST 2025</t>
@@ -175,43 +173,37 @@
 United States</t>
   </si>
   <si>
-    <t>Thu Jun 12 15:19:18 IST 2025</t>
+    <t>Wed Jun 18 15:46:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 18 15:51:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 18 15:54:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 18 16:38:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jun 27 20:42:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Name Appearing on Card:,Imtiaz Ahmed,
+Card Type:,	MasterCard,
+Card Number:,	51****0035,
+Expiration Date:,	10/2028,
+Billing Address:,	1853 Mandan Terace,
+Greenbelt,Maryland MD 20770,
+Country:,	UNITED STATES,</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Wed Jun 18 12:09:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 12:11:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:45:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:45:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:45:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:45:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:46:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:46:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:51:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 15:54:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 16:38:57 IST 2025</t>
+    <t>Thu Jul 24 20:42:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jul 24 20:45:30 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -639,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -664,10 +656,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -690,10 +682,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -719,6 +711,117 @@
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB1CD1-F3B6-43AC-8580-D3EB244DA395}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.36328125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row ht="130.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="9">
+        <v>28609</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -767,10 +870,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -778,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -812,11 +915,11 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -838,11 +941,11 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
@@ -909,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -918,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -941,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -1124,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1152,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -1175,10 +1278,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -1208,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C743C20-9154-41EC-9178-39729EDF45F3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1280,6 +1383,87 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC4ABD-97C1-4B0A-A78A-1F57EE1A6D5C}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row ht="409.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0D7E3-B8FB-4BA8-A147-CA4665BD31FB}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -1321,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row ht="362.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1329,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -1352,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1360,12 +1544,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB2C77F-A6BC-4072-8D66-A2FB7943F35E}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,19 +1592,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row ht="333.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -1428,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -1451,130 +1635,19 @@
         <v>6</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="10">
         <v>28609</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB1CD1-F3B6-43AC-8580-D3EB244DA395}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="11" max="11" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.36328125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="29" r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row ht="130.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
-        <v>6</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="9">
-        <v>28609</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/ABPTestData/PaymentsCC.xlsx
+++ b/KatalonData/ABPTestData/PaymentsCC.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\ABPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{843CA9F4-5A81-4726-8D9F-B501FAA68738}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E1744E-7427-404A-BBE3-C5F6189627A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="6" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VerifySuccessfulPaymentCCNoCF" r:id="rId1" sheetId="1"/>
-    <sheet name="VerifyCFVerbiageOnRPCCDCF" r:id="rId2" sheetId="4"/>
-    <sheet name="VerifyStaticTextOnRecieptCC" r:id="rId3" sheetId="5"/>
-    <sheet name="VerifySuccessfulPaymentCCSCF" r:id="rId4" sheetId="2"/>
-    <sheet name="VerifySuccessfulPaymentCCDCF" r:id="rId5" sheetId="3"/>
-    <sheet name="VerifySuccessfulPaymentSPMCCDCF" r:id="rId6" sheetId="9"/>
-    <sheet name="UiVerificationSPPaymentMethodCC" r:id="rId7" sheetId="10"/>
-    <sheet name="VerifyStaticTextOnPPCCDCF" r:id="rId8" sheetId="6"/>
-    <sheet name="UIVerifySelectPaymentMethodCC" r:id="rId9" sheetId="7"/>
-    <sheet name="CreateVerifyDeleteCCPM" r:id="rId10" sheetId="8"/>
+    <sheet name="VerifySuccessfulPaymentCCNoCF" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCFVerbiageOnRPCCDCF" sheetId="4" r:id="rId2"/>
+    <sheet name="VerifyStaticTextOnRecieptCC" sheetId="5" r:id="rId3"/>
+    <sheet name="VerifySuccessfulPaymentCCSCF" sheetId="2" r:id="rId4"/>
+    <sheet name="VerifySuccessfulPaymentCCDCF" sheetId="3" r:id="rId5"/>
+    <sheet name="VerifySuccessfulPaymentSPMCCDCF" sheetId="9" r:id="rId6"/>
+    <sheet name="UiVerificationSPPaymentMethodCC" sheetId="10" r:id="rId7"/>
+    <sheet name="VerifyStaticTextOnPPCCDCF" sheetId="6" r:id="rId8"/>
+    <sheet name="UIVerifySelectPaymentMethodCC" sheetId="7" r:id="rId9"/>
+    <sheet name="CreateVerifyDeleteCCPM" sheetId="8" r:id="rId10"/>
+    <sheet name="CreateSPDCFCC_IPDeferred" sheetId="11" r:id="rId11"/>
+    <sheet name="CreateSPDCFCC_IPDailyNOP" sheetId="12" r:id="rId12"/>
+    <sheet name="CreateSPDCFCC_IPDailyIA" sheetId="13" r:id="rId13"/>
+    <sheet name="CreateSPDCFCC_RecDaily" sheetId="14" r:id="rId14"/>
+    <sheet name="CreateSPDCFCC_RecDeferred" sheetId="15" r:id="rId15"/>
+    <sheet name="CreateSPDCFCC_AutomaticPayment" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="67">
   <si>
     <t>Result</t>
   </si>
@@ -197,21 +214,71 @@
 Country:,	UNITED STATES,</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Jul 24 20:42:19 IST 2025</t>
-  </si>
-  <si>
     <t>Thu Jul 24 20:45:30 IST 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PaymentPlanType</t>
+  </si>
+  <si>
+    <t>PaymentPlanFrequency</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>RecurringAmount</t>
+  </si>
+  <si>
+    <t>AutomaticPayment</t>
+  </si>
+  <si>
+    <t>InstallmentPlan</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Mon Aug 25 20:11:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 25 20:12:14 IST 2025</t>
+  </si>
+  <si>
+    <t>DivideYourPaymentPlan</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 18:45:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 08 19:16:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 08 20:01:38 IST 2025</t>
+  </si>
+  <si>
+    <t>IndividualAmount</t>
+  </si>
+  <si>
+    <t>NumberOfPayments</t>
+  </si>
+  <si>
+    <t>Mon Sep 08 20:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 08 23:14:30 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +289,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -276,42 +349,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -328,10 +407,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -366,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -401,7 +480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -495,21 +574,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -526,7 +605,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -578,15 +657,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
@@ -594,7 +673,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +786,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -715,22 +794,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB1CD1-F3B6-43AC-8580-D3EB244DA395}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB1CD1-F3B6-43AC-8580-D3EB244DA395}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="29" r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row ht="130.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -821,13 +900,572 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A934BCA2-85F5-4C93-BBEE-2C380B06E8FD}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="15.453125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B956F6-C214-41E0-9C06-CEBF82C79B1D}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.90625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA0791-CEBE-4D11-B2A1-F3F80E94D9F6}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D40E85-2D41-457A-88AE-C55FF8092C53}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCD7964-6EA7-47FC-8316-5BB19CD71397}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A235C-1EB8-4FB4-A052-AC25C4AD1D51}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D17964-3C9A-4128-9E79-065C6162AEA0}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D17964-3C9A-4128-9E79-065C6162AEA0}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -835,10 +1473,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="12" max="12" width="9.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="29" r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,13 +1601,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3F653-DA45-4F17-B585-55D2A689218D}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3F653-DA45-4F17-B585-55D2A689218D}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K2"/>
@@ -977,10 +1615,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="11" max="11" width="31" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="29" r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1654,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row ht="145" r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1049,13 +1687,13 @@
       <c r="L2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63CEF1E-9472-4171-9CD3-FA3B036F7CBF}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63CEF1E-9472-4171-9CD3-FA3B036F7CBF}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -1063,7 +1701,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,13 +1814,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D9BFE-7E90-4AE5-8638-D512C4CC008B}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D9BFE-7E90-4AE5-8638-D512C4CC008B}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -1190,7 +1828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,13 +1941,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C743C20-9154-41EC-9178-39729EDF45F3}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C743C20-9154-41EC-9178-39729EDF45F3}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
@@ -1317,7 +1955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,21 +2016,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC4ABD-97C1-4B0A-A78A-1F57EE1A6D5C}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC4ABD-97C1-4B0A-A78A-1F57EE1A6D5C}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,12 +2065,12 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -1459,13 +2097,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0D7E3-B8FB-4BA8-A147-CA4665BD31FB}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0D7E3-B8FB-4BA8-A147-CA4665BD31FB}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:K2"/>
@@ -1473,7 +2111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +2146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="362.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1540,13 +2178,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB2C77F-A6BC-4072-8D66-A2FB7943F35E}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB2C77F-A6BC-4072-8D66-A2FB7943F35E}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:K2"/>
@@ -1554,13 +2192,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="11" max="11" width="20.7265625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="29" r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +2245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row ht="333.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1651,6 +2289,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/ABPTestData/PaymentsCC.xlsx
+++ b/KatalonData/ABPTestData/PaymentsCC.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E1744E-7427-404A-BBE3-C5F6189627A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{01E1744E-7427-404A-BBE3-C5F6189627A0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="15" firstSheet="14" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="VerifySuccessfulPaymentCCNoCF" sheetId="1" r:id="rId1"/>
-    <sheet name="VerifyCFVerbiageOnRPCCDCF" sheetId="4" r:id="rId2"/>
-    <sheet name="VerifyStaticTextOnRecieptCC" sheetId="5" r:id="rId3"/>
-    <sheet name="VerifySuccessfulPaymentCCSCF" sheetId="2" r:id="rId4"/>
-    <sheet name="VerifySuccessfulPaymentCCDCF" sheetId="3" r:id="rId5"/>
-    <sheet name="VerifySuccessfulPaymentSPMCCDCF" sheetId="9" r:id="rId6"/>
-    <sheet name="UiVerificationSPPaymentMethodCC" sheetId="10" r:id="rId7"/>
-    <sheet name="VerifyStaticTextOnPPCCDCF" sheetId="6" r:id="rId8"/>
-    <sheet name="UIVerifySelectPaymentMethodCC" sheetId="7" r:id="rId9"/>
-    <sheet name="CreateVerifyDeleteCCPM" sheetId="8" r:id="rId10"/>
-    <sheet name="CreateSPDCFCC_IPDeferred" sheetId="11" r:id="rId11"/>
-    <sheet name="CreateSPDCFCC_IPDailyNOP" sheetId="12" r:id="rId12"/>
-    <sheet name="CreateSPDCFCC_IPDailyIA" sheetId="13" r:id="rId13"/>
-    <sheet name="CreateSPDCFCC_RecDaily" sheetId="14" r:id="rId14"/>
-    <sheet name="CreateSPDCFCC_RecDeferred" sheetId="15" r:id="rId15"/>
-    <sheet name="CreateSPDCFCC_AutomaticPayment" sheetId="16" r:id="rId16"/>
+    <sheet name="VerifySuccessfulPaymentCCNoCF" r:id="rId1" sheetId="1"/>
+    <sheet name="VerifyCFVerbiageOnRPCCDCF" r:id="rId2" sheetId="4"/>
+    <sheet name="VerifyStaticTextOnRecieptCC" r:id="rId3" sheetId="5"/>
+    <sheet name="VerifySuccessfulPaymentCCSCF" r:id="rId4" sheetId="2"/>
+    <sheet name="VerifySuccessfulPaymentCCDCF" r:id="rId5" sheetId="3"/>
+    <sheet name="VerifySuccessfulPaymentSPMCCDCF" r:id="rId6" sheetId="9"/>
+    <sheet name="UiVerificationSPPaymentMethodCC" r:id="rId7" sheetId="10"/>
+    <sheet name="VerifyStaticTextOnPPCCDCF" r:id="rId8" sheetId="6"/>
+    <sheet name="UIVerifySelectPaymentMethodCC" r:id="rId9" sheetId="7"/>
+    <sheet name="CreateVerifyDeleteCCPM" r:id="rId10" sheetId="8"/>
+    <sheet name="CreateSPDCFCC_IPDeferred" r:id="rId11" sheetId="11"/>
+    <sheet name="CreateSPDCFCC_IPDailyNOP" r:id="rId12" sheetId="12"/>
+    <sheet name="CreateSPDCFCC_IPDailyIA" r:id="rId13" sheetId="13"/>
+    <sheet name="CreateSPDCFCC_RecDaily" r:id="rId14" sheetId="14"/>
+    <sheet name="CreateSPDCFCC_RecDeferred" r:id="rId15" sheetId="15"/>
+    <sheet name="CreateSPDCFCC_AutomaticPayment" r:id="rId16" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="116">
   <si>
     <t>Result</t>
   </si>
@@ -273,11 +273,159 @@
   <si>
     <t>Mon Sep 08 23:14:30 IST 2025</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Sep 19 20:30:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 20:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 20:50:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:02:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:03:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:04:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:05:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:08:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:11:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:14:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:16:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:19:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:41:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 21:51:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 23:05:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:28:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:32:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:35:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:37:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:39:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:40:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:40:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:41:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:43:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:46:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:49:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:51:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 16:54:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 17:15:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 24 17:26:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:09:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:14:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:16:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:19:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:21:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:21:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:22:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:22:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:25:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:28:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:30:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:36:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 13:56:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 25 14:06:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 30 18:23:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 30 18:23:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 30 18:24:34 IST 2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,48 +497,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -407,10 +555,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -445,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -480,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,21 +722,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -605,7 +753,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -657,15 +805,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
@@ -673,7 +821,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -735,10 +883,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -761,10 +909,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -786,7 +934,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -794,8 +942,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB1CD1-F3B6-43AC-8580-D3EB244DA395}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB1CD1-F3B6-43AC-8580-D3EB244DA395}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -803,13 +951,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.36328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.36328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,12 +1004,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+    <row ht="130.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
@@ -900,13 +1048,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A934BCA2-85F5-4C93-BBEE-2C380B06E8FD}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A934BCA2-85F5-4C93-BBEE-2C380B06E8FD}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:H4"/>
@@ -914,9 +1062,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="15.453125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1038,14 +1186,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B956F6-C214-41E0-9C06-CEBF82C79B1D}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B956F6-C214-41E0-9C06-CEBF82C79B1D}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -1053,10 +1201,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1150,13 +1298,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA0791-CEBE-4D11-B2A1-F3F80E94D9F6}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA0791-CEBE-4D11-B2A1-F3F80E94D9F6}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -1164,8 +1312,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1232,13 +1380,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D40E85-2D41-457A-88AE-C55FF8092C53}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D40E85-2D41-457A-88AE-C55FF8092C53}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -1310,13 +1458,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCD7964-6EA7-47FC-8316-5BB19CD71397}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCD7964-6EA7-47FC-8316-5BB19CD71397}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I2"/>
@@ -1388,13 +1536,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A235C-1EB8-4FB4-A052-AC25C4AD1D51}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A235C-1EB8-4FB4-A052-AC25C4AD1D51}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -1459,13 +1607,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D17964-3C9A-4128-9E79-065C6162AEA0}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D17964-3C9A-4128-9E79-065C6162AEA0}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -1473,10 +1621,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" customWidth="true" width="9.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1601,13 +1749,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3F653-DA45-4F17-B585-55D2A689218D}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3F653-DA45-4F17-B585-55D2A689218D}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K2"/>
@@ -1615,10 +1763,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="31" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="31.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,12 +1802,12 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+    <row ht="145" r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -1687,13 +1835,13 @@
       <c r="L2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63CEF1E-9472-4171-9CD3-FA3B036F7CBF}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63CEF1E-9472-4171-9CD3-FA3B036F7CBF}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -1701,7 +1849,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1766,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -1792,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -1814,13 +1962,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D9BFE-7E90-4AE5-8638-D512C4CC008B}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D9BFE-7E90-4AE5-8638-D512C4CC008B}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -1828,7 +1976,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1893,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -1916,10 +2064,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -1941,13 +2089,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C743C20-9154-41EC-9178-39729EDF45F3}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C743C20-9154-41EC-9178-39729EDF45F3}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
@@ -1955,7 +2103,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1989,10 +2137,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2016,13 +2164,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC4ABD-97C1-4B0A-A78A-1F57EE1A6D5C}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC4ABD-97C1-4B0A-A78A-1F57EE1A6D5C}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -2030,7 +2178,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,12 +2213,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -2097,13 +2245,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0D7E3-B8FB-4BA8-A147-CA4665BD31FB}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0D7E3-B8FB-4BA8-A147-CA4665BD31FB}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:K2"/>
@@ -2111,7 +2259,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,12 +2294,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
+    <row ht="362.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -2178,13 +2326,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB2C77F-A6BC-4072-8D66-A2FB7943F35E}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB2C77F-A6BC-4072-8D66-A2FB7943F35E}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:K2"/>
@@ -2192,13 +2340,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="20.7265625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="20.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="333.5" x14ac:dyDescent="0.35">
+    <row ht="333.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -2289,6 +2437,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/ABPTestData/PaymentsCC.xlsx
+++ b/KatalonData/ABPTestData/PaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="117">
   <si>
     <t>Result</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Tue Sep 30 18:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 08 21:15:40 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2137,10 +2140,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/ABPTestData/PaymentsCC.xlsx
+++ b/KatalonData/ABPTestData/PaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="146">
   <si>
     <t>Result</t>
   </si>
@@ -422,6 +422,93 @@
   </si>
   <si>
     <t>Wed Oct 08 21:15:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:36:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:40:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:43:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:45:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:48:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:48:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:49:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:49:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:52:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:54:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:57:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:00:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:03:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:22:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:32:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 00:42:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:33:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:36:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:39:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:41:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:43:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:44:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:44:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:45:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:48:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:50:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:53:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:56:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:59:00 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -861,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -889,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -915,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -1012,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
@@ -1670,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1810,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -1889,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1917,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -1943,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -2016,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2044,7 +2131,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -2070,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -2143,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2221,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -2302,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">

--- a/KatalonData/ABPTestData/PaymentsCC.xlsx
+++ b/KatalonData/ABPTestData/PaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="183">
   <si>
     <t>Result</t>
   </si>
@@ -509,6 +509,117 @@
   </si>
   <si>
     <t>Wed Oct 15 19:59:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 17 16:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 25 16:55:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 25 18:52:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 25 18:54:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 25 22:33:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 25 23:01:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 25 23:24:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 00:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Oct 27 20:51:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Oct 27 22:40:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Oct 27 23:40:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Oct 27 23:47:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Oct 27 23:54:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Oct 27 23:55:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Oct 27 23:56:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 28 00:25:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:32:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:36:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:38:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:40:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:42:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:43:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:43:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:44:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:51:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:59:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:07:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:09:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:12:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:49:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:57:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 21:18:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 31 15:02:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 31 15:05:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 31 15:08:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 03 21:43:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 03 22:50:54 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -976,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -1002,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -1099,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
@@ -1191,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
@@ -1334,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
@@ -1443,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
@@ -1521,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
@@ -1757,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1897,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -1976,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2004,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -2030,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -2103,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2131,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -2157,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -2230,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2308,7 +2419,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
@@ -2389,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
